--- a/data/trans_orig/P14B15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21642479-82F7-4D0F-8A1A-793DA17A2152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D4B41D-ADE5-453B-9C4D-A26B307D4217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21EE4914-26F7-481B-9913-A8A53F4CF7A1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B678780-BEB9-4077-97D4-921ADF54C0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
   <si>
     <t>Población cuyo problemas crónicos de la piel le limita en 2012 (Tasa respuesta: 1,29%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>21,42%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
   </si>
   <si>
     <t>46,43%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
   </si>
   <si>
     <t>33,13%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>78,58%</t>
   </si>
   <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>53,57%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
   </si>
   <si>
     <t>66,87%</t>
   </si>
   <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,160 +138,166 @@
     <t>18,56%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>6,96%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
   </si>
   <si>
     <t>50,03%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
   </si>
   <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -303,97 +309,97 @@
     <t>8,84%</t>
   </si>
   <si>
-    <t>47,81%</t>
+    <t>46,64%</t>
   </si>
   <si>
     <t>28,26%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
   </si>
   <si>
     <t>22,25%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>52,19%</t>
+    <t>53,36%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>28,22%</t>
+    <t>30,0%</t>
   </si>
   <si>
     <t>31,15%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>22,74%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>71,78%</t>
+    <t>70,0%</t>
   </si>
   <si>
     <t>68,85%</t>
   </si>
   <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>77,26%</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>0%</t>
@@ -411,7 +417,7 @@
     <t>10,16%</t>
   </si>
   <si>
-    <t>44,02%</t>
+    <t>43,74%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -426,61 +432,61 @@
     <t>89,84%</t>
   </si>
   <si>
-    <t>55,98%</t>
+    <t>56,26%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
 </sst>
 </file>
@@ -892,7 +898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1398DD3-BBA9-4663-B502-094C960216C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759960CA-9D83-4FB5-A1C5-763C3409606A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1356,13 +1362,13 @@
         <v>7470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1377,13 +1383,13 @@
         <v>4522</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1392,13 +1398,13 @@
         <v>2956</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -1407,13 +1413,13 @@
         <v>7479</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,13 +1487,13 @@
         <v>13897</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -1496,13 +1502,13 @@
         <v>14135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -1511,13 +1517,13 @@
         <v>28033</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1532,13 +1538,13 @@
         <v>43073</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -1547,13 +1553,13 @@
         <v>21996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -1562,13 +1568,13 @@
         <v>65068</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,7 +1630,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4E2FD7-3F00-4C66-9154-23D9A7B43A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E351E7-EA8C-4DC8-8520-ADF1618A6565}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1660,7 +1666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1767,13 +1773,13 @@
         <v>792</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -1782,13 +1788,13 @@
         <v>5653</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -1797,13 +1803,13 @@
         <v>6445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,13 +1824,13 @@
         <v>8169</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -1833,13 +1839,13 @@
         <v>14352</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -1848,13 +1854,13 @@
         <v>22521</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1928,13 @@
         <v>2086</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -1937,13 +1943,13 @@
         <v>9810</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -1952,13 +1958,13 @@
         <v>11897</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1979,13 @@
         <v>18731</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -1988,13 +1994,13 @@
         <v>21684</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -2003,13 +2009,13 @@
         <v>40413</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,10 +2086,10 @@
         <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2092,13 +2098,13 @@
         <v>1080</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2107,13 +2113,13 @@
         <v>1080</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,10 +2134,10 @@
         <v>5683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2143,13 +2149,13 @@
         <v>3864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -2158,13 +2164,13 @@
         <v>9547</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2238,13 @@
         <v>2879</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -2247,13 +2253,13 @@
         <v>16543</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -2262,13 +2268,13 @@
         <v>19422</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2289,13 @@
         <v>32582</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -2298,13 +2304,13 @@
         <v>39900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>70</v>
@@ -2313,13 +2319,13 @@
         <v>72481</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,7 +2381,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B15-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D4B41D-ADE5-453B-9C4D-A26B307D4217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8FC8AB6-FBF2-4088-80EF-215C764E32C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B678780-BEB9-4077-97D4-921ADF54C0BB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{759D137F-BE2B-4B99-AD49-0845D0AB041B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
   <si>
     <t>Población cuyo problemas crónicos de la piel le limita en 2012 (Tasa respuesta: 1,29%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>21,42%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
   </si>
   <si>
     <t>46,43%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
   </si>
   <si>
     <t>33,13%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>78,58%</t>
   </si>
   <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>53,57%</t>
   </si>
   <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
   </si>
   <si>
     <t>66,87%</t>
   </si>
   <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>18,56%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>76,76%</t>
   </si>
   <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,31 +198,28 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>88,63%</t>
+    <t>91,43%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>85,26%</t>
   </si>
   <si>
     <t>49,97%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>50,62%</t>
   </si>
   <si>
-    <t>11,37%</t>
+    <t>8,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -231,175 +228,172 @@
     <t>49,15%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>14,74%</t>
   </si>
   <si>
     <t>50,03%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo problemas crónicos de la piel le limita en 2015 (Tasa respuesta: 1,34%)</t>
+    <t>Población cuyo problemas crónicos de la piel le limita en 2016 (Tasa respuesta: 1,34%)</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>46,64%</t>
+    <t>38,24%</t>
   </si>
   <si>
     <t>28,26%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
   </si>
   <si>
     <t>22,25%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
   </si>
   <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>53,36%</t>
+    <t>61,76%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>30,0%</t>
+    <t>30,46%</t>
   </si>
   <si>
     <t>31,15%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
   </si>
   <si>
     <t>22,74%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>70,0%</t>
+    <t>69,54%</t>
   </si>
   <si>
     <t>68,85%</t>
   </si>
   <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>77,26%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>0%</t>
@@ -417,7 +411,7 @@
     <t>10,16%</t>
   </si>
   <si>
-    <t>43,74%</t>
+    <t>43,33%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -432,61 +426,55 @@
     <t>89,84%</t>
   </si>
   <si>
-    <t>56,26%</t>
+    <t>56,67%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>13,2%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>86,8%</t>
   </si>
 </sst>
 </file>
@@ -898,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759960CA-9D83-4FB5-A1C5-763C3409606A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECCE676-E3E1-4E41-9DD0-1C7B8D144D63}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1350,10 +1338,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1362,13 +1350,13 @@
         <v>7470</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1383,13 +1371,13 @@
         <v>4522</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1398,13 +1386,13 @@
         <v>2956</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -1413,13 +1401,13 @@
         <v>7479</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1487,13 +1475,13 @@
         <v>13897</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -1502,13 +1490,13 @@
         <v>14135</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -1517,13 +1505,13 @@
         <v>28033</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1538,13 +1526,13 @@
         <v>43073</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -1553,13 +1541,13 @@
         <v>21996</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -1568,13 +1556,13 @@
         <v>65068</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,7 +1618,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E351E7-EA8C-4DC8-8520-ADF1618A6565}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFC7958-42A9-4FE9-8C2F-6F52402A0AEA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1666,7 +1654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1773,13 +1761,13 @@
         <v>792</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -1788,13 +1776,13 @@
         <v>5653</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -1803,13 +1791,13 @@
         <v>6445</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1812,13 @@
         <v>8169</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -1839,13 +1827,13 @@
         <v>14352</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -1854,13 +1842,13 @@
         <v>22521</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1916,13 @@
         <v>2086</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -1943,13 +1931,13 @@
         <v>9810</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -1958,13 +1946,13 @@
         <v>11897</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1967,13 @@
         <v>18731</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -1994,13 +1982,13 @@
         <v>21684</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -2009,13 +1997,13 @@
         <v>40413</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,10 +2074,10 @@
         <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2098,13 +2086,13 @@
         <v>1080</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2113,13 +2101,13 @@
         <v>1080</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,10 +2122,10 @@
         <v>5683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2149,13 +2137,13 @@
         <v>3864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -2164,13 +2152,13 @@
         <v>9547</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2226,13 @@
         <v>2879</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -2253,13 +2241,13 @@
         <v>16543</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -2268,13 +2256,13 @@
         <v>19422</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2277,13 @@
         <v>32582</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -2304,13 +2292,13 @@
         <v>39900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>70</v>
@@ -2319,13 +2307,13 @@
         <v>72481</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,7 +2369,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
